--- a/file/vip_91chuangye_com.xlsx
+++ b/file/vip_91chuangye_com.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7683,6 +7683,1808 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/15/267834/</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>小红书经典台词变现项目，零撸玩法 快速上手 日产100+</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241015043047-670deff78962e-300x200.jpeg</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/15/122150ctv097v7sr1q7110.jpeg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+小红书经典台词变现项目，零撸玩法 快速上手 日产100+&lt;br/&gt;
+本期柚子给小伙本们分享一个快速上手的经典图文语录项目，小红书为主多个平台通用的玩法&lt;br/&gt;
+这种操作非常简单一张图片一段文字就是一个作品，就是这样简单的作品基本上看到了都会点进去看一看是什么，这种作品流量其实非常大的，不管是小红书上商单还是涨粉引流效果都是不错的&lt;br/&gt;
+主要操作的领域方向+操作工具柚子也给小伙们推荐好了，直接套用即可&lt;/p&gt;
+&lt;p&gt;一、项目详情说明&lt;/p&gt;
+&lt;p&gt;二、项目准备工序&lt;/p&gt;
+&lt;p&gt;三、作品制作发布&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1MDQP_oox4yRZ4oJ_RJfNag</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2024-10-15 12:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267752/</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>小红书运营课程详解：起号策划与变现方法，打造爆款内容</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241014092147-670ce2abd5bb9-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/14/171226jvznwnz1z3nucnwz.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+该内容主要介绍了小红书运营课程，涵盖了从买课前后的准备到小红书基础知识和运营规则的讲解，再到如何赚钱（变现）的方法和技巧。此外，还深入探讨了做小红书必做的第一步——策划，包括起号全流程、变现定位、人设ip定位等。最后，详细讲解了制作优质内容的核心技巧，包括选题、文案、拍摄、剪辑等方面的技巧，以及专业运营起号的逻辑和基础投放。&lt;/p&gt;
+&lt;p&gt;小红书运营课&lt;/p&gt;
+&lt;p&gt;2_小红书基础-小红书的现状分析和受众人群.mp4&lt;/p&gt;
+&lt;p&gt;3_小红书基础-做小红书你千万要知道的规则.mp4&lt;/p&gt;
+&lt;p&gt;4_小红书基础-小红书的流量池与分发机制.mp4&lt;/p&gt;
+&lt;p&gt;5_小红书基础-专业号和普通号的区别-手把手开通专业号.mp4&lt;/p&gt;
+&lt;p&gt;6小红书基础-拍摄前的设备准备.mp4&lt;/p&gt;
+&lt;p&gt;7_小红书都是怎么赚钱的（变现）-广告-变现方法.mp4&lt;/p&gt;
+&lt;p&gt;8_小红书都是怎么赚钱的（变现）-如何视频带货-手把手开通店铺、发布商品笔记、小清单.mp4&lt;/p&gt;
+&lt;p&gt;9_小红书都是怎么赚钱的（变现）-靠小红书引流私域的方法.mp4&lt;/p&gt;
+&lt;p&gt;10_小红书都是怎么赚钱的（变现）-如何在小红书上直播带货（基础篇）-手把手开直播上下架商品.mp4&lt;/p&gt;
+&lt;p&gt;11_做小红书必做的第一步-策划-小红书起号全流程.mp4&lt;/p&gt;
+&lt;p&gt;12_做小红书必做的第一步-策划-变现定位-有行业的人四大玩法-无行业的人如何找定位-推荐赛道.mp4&lt;/p&gt;
+&lt;p&gt;13_做小红书必做的第一步-策划-人设ip定位.mp4&lt;/p&gt;
+&lt;p&gt;14_做小红书必做的第一步-策划-账号搭建-头图昵称简介头像.mp4&lt;/p&gt;
+&lt;p&gt;15_做小红书必做的第一步-策划-独门绝技快速起号方法-找对标.mp4&lt;/p&gt;
+&lt;p&gt;16_制作优质内容的核心技巧-选题标题开篇-如何找到爆款选题如何写开篇八大梦境.mp4&lt;/p&gt;
+&lt;p&gt;17_制作优质内容的核心技巧-文案-万能模板-种草模板-探店VLOG脚本-内容配比-打标签.mp4&lt;/p&gt;
+&lt;p&gt;18_制作优质内容的核心技巧-大光带你手把手写文案.mp4&lt;/p&gt;
+&lt;p&gt;19_制作优质内容的核心技巧-拍摄-景别-运镜-构图-置景-软件-清晰度.mp4&lt;/p&gt;
+&lt;p&gt;20_制作优质内容的核心技巧-剪辑-剪映的基础操作-软件推荐-剪气口-关键帧-涂鸦-素材网.mp4&lt;/p&gt;
+&lt;p&gt;21_制作优质内容的核心技巧-必看！小红书运营核心技巧-封面P图.mp4&lt;/p&gt;
+&lt;p&gt;22_揭秘专业运营起号逻辑-必看运营技巧.mp4&lt;/p&gt;
+&lt;p&gt;23_揭秘专业运营起号逻辑-基础投放.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1ePN6jPTlqJVPAjaMK4gm2Q</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267750/</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>短视频抖店蓝海课程：从基础功能到变现方式，轻松打造爆款短视频</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241014091055-670ce01f40bea-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/14/164043nvbz1frv8prokopi.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+【抖音运营实操课】教你从零到一关于抖音运营实操的课程内容，从短视频表现力、基础功能攻略、设备准备、规则解析、流量池机制、账号权重与标签、变现方式等多个方面进行深入讲解。此外，还包含5个具体的项目课程，涉及清洁、玩具、零食、厨房、学习等领域。&lt;/p&gt;
+&lt;p&gt;课程目录&lt;/p&gt;
+&lt;p&gt;1.会滴拍啥都能火的短视频表现力课.mp4&lt;br/&gt;
+2.超小白的抖音基础功能最全攻略.mp4&lt;br/&gt;
+3.拍摄前的设备准备与心态调整.mp4&lt;br/&gt;
+4.抖音你必须知道的那些规则.mp4&lt;br/&gt;
+5.流量池机制与粉丝画像.mp4&lt;br/&gt;
+6.账号权重与标签.mp4&lt;br/&gt;
+7.变现方式[广告、打赏].mp4&lt;br/&gt;
+8.变现方式[电商].mp4&lt;br/&gt;
+9.变现方式[引流]与5个项目推荐理由.mp4&lt;br/&gt;
+10.五种人设方向与不露脸怎么打造个人lP.mp4&lt;br/&gt;
+11.账号搭建与封面制作.mp4&lt;br/&gt;
+12.底层逻辑-用户思维的核心技巧[漏出三点].mp4&lt;br/&gt;
+13.解决[选题、文案、呈现]难题的核心方法.mp4&lt;br/&gt;
+14.如何通过借鉴、搜索写出爆款文案.mp4&lt;br/&gt;
+15.如何做出有创意的呈现.mp4&lt;br/&gt;
+16.拆账号、拆片、拆文案.mp4&lt;br/&gt;
+17.小白上手最简单的拍摄课.mp4&lt;br/&gt;
+18.小白如何通过剪辑获取更多流量.mp4&lt;br/&gt;
+19.抖音运营基础知识与核心玩法[AB TEST].mp4&lt;br/&gt;
+20.DOU+、小店随心推、千l川.mp4&lt;/p&gt;
+&lt;p&gt;1.项目一：清洁类课程.mp4&lt;br/&gt;
+2.项目二：玩具类课程.mp4&lt;br/&gt;
+3.项目三：零食类课程.mp4&lt;br/&gt;
+4.项目四：厨房类课程.mp4&lt;br/&gt;
+5.项目五：学习类课程.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1mxxvX7Ill3jO8tGFwEVHxw</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:54:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267719/</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ai微头条项目，Ai图文变现最新玩法，一天生产上千条文章每篇过原创的玩法</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241014040043-670c976b6831d-300x200.png</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/14/115014cjguuwbvwew9m0bf.png"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+ai微头条项目。Ai图文变现最新玩法，一天生产上千条文章，一天发布上千条文章，每篇过原创的玩法。情感赛道，大家都知道，ai写这个领域也是最简单的，一个爆款标题，标题成文的指令，对应文章的配图，这样就出来一篇纯原创的文章。6.20头条全面上线了头条首发激励的功能，新号上来就是享受三倍权益。注意部分软件工具需要自行购买！&lt;/p&gt;
+&lt;p&gt;
+课程目录：&lt;br/&gt;
+├─1、Ai头条课程&lt;br/&gt;
+│ ├─课程中提到的网址和指令词&lt;br/&gt;
+│ │ 一键导出公众号历史标题.docx&lt;br/&gt;
+│ │ 爆款指令.docx&lt;br/&gt;
+│ │ 课程中用到的网址.txt&lt;br/&gt;
+│ │&lt;br/&gt;
+│ └─课程（先看这里）&lt;br/&gt;
+│ 2、项目原理介绍 .mp4&lt;br/&gt;
+│ 3、注册账号 .mp4&lt;br/&gt;
+│ 4、文章批量玩法操作步骤 .mp4&lt;br/&gt;
+│ 5、发文可能会出现的现象 .mp4&lt;br/&gt;
+│ 6、常见问题汇总 .mp4&lt;br/&gt;
+│ 7.1 矩阵玩法 .mp4&lt;br/&gt;
+│ 7.2 验证工具介绍演示 .mp4&lt;br/&gt;
+│ 7.3 云端IP批量验证工具.exe&lt;br/&gt;
+│ 8、收益情况 .mp4&lt;br/&gt;
+│ 9、直播答疑 .mp4&lt;br/&gt;
+│ 10、情感领域如何选题 .mp4&lt;br/&gt;
+│ 11、生肖星座领域玩法 .mp4&lt;br/&gt;
+│ 12、如何创作Ai提示词 .mp4&lt;br/&gt;
+│ 13、头条数据批量采集软件 .mp4&lt;br/&gt;
+│ 14、公众号数据批量采集软件 .mp4&lt;br/&gt;
+│ 15、微头条玩法 .mp4&lt;br/&gt;
+│ 16、微头条民生领域如何找素材 .mp4&lt;br/&gt;
+│&lt;br/&gt;
+└─2、软件汇总&lt;br/&gt;
+│ WPS.exe&lt;br/&gt;
+│ 谷歌浏览器.exe&lt;br/&gt;
+│&lt;br/&gt;
+├─八爪鱼采集器（头条数据采集）&lt;br/&gt;
+│ 八爪鱼采集安装程序.exe&lt;br/&gt;
+│ 头条文章.otd&lt;br/&gt;
+│&lt;br/&gt;
+├─公众号数据采集&lt;br/&gt;
+│ 微信公众号文章搜索导出助手V1.6.8.zip&lt;br/&gt;
+│&lt;br/&gt;
+├─多开浏览器&lt;br/&gt;
+│ 比特浏览器-windows电脑.exe&lt;br/&gt;
+│ 比特浏览器-苹果电脑.dmg&lt;br/&gt;
+│ 比特浏览器_苹果电脑（apple芯片）.dmg&lt;br/&gt;
+│&lt;br/&gt;
+├─批量生成文章软件&lt;br/&gt;
+│ 批量采集软件资料库.txt&lt;br/&gt;
+│ 采集08021.exe&lt;br/&gt;
+│&lt;br/&gt;
+├─自建网站&lt;br/&gt;
+│ 01 搭建智能Ai网站.zip&lt;br/&gt;
+│ 网站链接.txt&lt;br/&gt;
+│ 自建模板.txt&lt;br/&gt;
+│&lt;br/&gt;
+└─远程演示软件&lt;br/&gt;
+向日葵-mac版intel芯片.dmg&lt;br/&gt;
+向日葵-mac苹果芯片.dmg&lt;br/&gt;
+向日葵-windows版.exe&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1h5sQ2807HdTJ1u6gZn5s6Q</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:50:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267713/</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>视频号数字人AI口播带货，解决素人出镜难题，高效产出爆款视频引流变现</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241014034037-670c92b50f103-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/14/113045lrywzhiia3gswge3.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+项目介绍&lt;/p&gt;
+&lt;p&gt;先跟大家说下在视频号带货中利用AI数字人打法的逻辑：&lt;/p&gt;
+&lt;p&gt;过去的视频号带货都在做真人口播短视频+直播的打法，也就是说我们的爆款短视频是有真人出镜口播，&lt;/p&gt;
+&lt;p&gt;通过立人设、出镜讲故事、速品、挖大用户痛点、场景植入进而达到短视频的瞬爆，精准引流到直播间进行成交。&lt;/p&gt;
+&lt;p&gt;随着平台鼓励更多的优质内容，很多素人在做真人出镜的时候，&lt;/p&gt;
+&lt;p&gt;无论是服道化还是整体的演绎、表达跟对应的品没有形成良好的匹配度，让平台判定内容不够优质，进而不会给到高流量、高转化。&lt;/p&gt;
+&lt;p&gt;AI数字人打法的诞生，是因为数字人可以解决很多素人不愿意出镜、不会拍、拍不好的问题，并且，不同的数字人可以跟不同的品有更高的匹配度。&lt;/p&gt;
+&lt;p&gt;以一个三农的产品为例，需要人物是一个农民的形象气质，很显然很多真人出镜是无法塑造这种感觉的，那么数字人就可以很好的解决这个问题。&lt;/p&gt;
+&lt;p&gt;就好像大家知道的阿凡达电影，借助了3D特效才能有那么唯美的镜头，是一个意思。&lt;/p&gt;
+&lt;p&gt;另外，数字人更像是一个提效的工具，相对于真人出镜拍摄，更高效、更便捷，所以这就是数字人打法会有一个风口的原因。&lt;/p&gt;
+&lt;p&gt;想要在这个打法上赚钱，除了要了解并掌握如何通过数字人工具产出爆款视频外，&lt;/p&gt;
+&lt;p&gt;这个打法的关键要素，核心还是品跟素材框架，需要大家知道，无论是真人拍还是数字人生产口播，一个好的框架才能事半功倍。&lt;/p&gt;
+&lt;p&gt;那么做这个项目的几个优势是：&lt;/p&gt;
+&lt;p&gt;1、平台扶持&lt;/p&gt;
+&lt;p&gt;众所周知，微信视频号是2020年1月腾讯就开始内测的短视频平台，区别于抖音快手，我们认为它是一个有更多社交场景属性的平台，是基于微信的使用。&lt;/p&gt;
+&lt;p&gt;比如可以进行好友之间的点赞、评论、互动、分享，也是人们口中常说的私域。这也是为什么视频号短短几年时间现在日活超过6亿的原因。&lt;/p&gt;
+&lt;p&gt;2、流量如潮涌&lt;/p&gt;
+&lt;p&gt;目前，视频号日活超过6亿。可以说，视频号带货，无论短视频还是直播，都是属于风口红利上。&lt;/p&gt;
+&lt;p&gt;腾讯也公开表示会将重心持续放在了视频号上，在视频号上的个体玩家将迎来诸多利好政策、利好消息。&lt;/p&gt;
+&lt;p&gt;3、生态竞争少&lt;/p&gt;
+&lt;p&gt;视频号是微信的生态闭环，所以微信视频号对比抖音、快手、小红书等有着更为严格的审核机制。&lt;/p&gt;
+&lt;p&gt;正因为这样，就挡住了很多在其他平台上习惯野蛮暴力收割的团队，大家的竞争也相对公平。也就是说：视频号没有抖音、快手、小红书这么卷。&lt;/p&gt;
+&lt;p&gt;4、选品新机遇&lt;/p&gt;
+&lt;p&gt;在抖音高度内卷的当下，由于抖音数据高度透明化，爆品的生命周期越来越短。&lt;/p&gt;
+&lt;p&gt;而现在视频号因为入局的人比起抖音来说少之又少，那么仍然有比较大的选品红利。&lt;/p&gt;
+&lt;p&gt;这次淘金计划深耕版，拾柒团队会每天实时更新直播广场上最新最热，佣金率高达60%的品给到大家。&lt;/p&gt;
+&lt;p&gt;5、消费力旺盛&lt;/p&gt;
+&lt;p&gt;目前视频号的主流消费群体是45岁以上的中老年女性，占比为60%以上。尤其是下沉市场的用户，很多人基本不玩抖音、快手。&lt;/p&gt;
+&lt;p&gt;所以当视频号的视频、直播带货以内容种草的形式、微剧情的形式展示到眼前时，她们会觉得这就是新、奇、特，像年轻人沉迷于刷抖音、在直播间买买买一样，在视频号的世界出不来。&lt;/p&gt;
+&lt;p&gt;6、AI高效制视频&lt;/p&gt;
+&lt;p&gt;由于视频号平台政策逐渐收紧，导致之前的混剪玩法越来越难，新人只能选择真人录制视频。&lt;/p&gt;
+&lt;p&gt;在面对这种情况，大部分新手面对镜头时会因为恐惧、形象与表现力的不足，常常成为带货成功的障碍，&lt;/p&gt;
+&lt;p&gt;而这次，AI数字人的引入，让每个人都能制作出具有专业表现力的口播视频，减轻人工成本，大大提高产出视频效率，也大幅降低了项目的入门难度。&lt;/p&gt;
+&lt;p&gt;这个项目，一句话来说就是：&lt;/p&gt;
+&lt;p&gt;视频号带货依托腾讯生态，日活仅次于抖音，用户年龄偏中老年，客单价和转化率相比其他平台高，&lt;/p&gt;
+&lt;p&gt;目前属于增长爆发期，红利和危机并存，起步难度低，适合新手实操入局。&lt;/p&gt;
+&lt;p&gt;只需根据提供的精选商品和文案，制作数字人视频并发布，减轻成本，达到条件后再自己开播，拿佣金分成。&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1b-1hyfcZLZJvERsCeYYR9g</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:31:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267687/</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>AI热门项目  动物打工视频搬砖   一键生成轻松爆热门 专撩温柔多金小姐姐 私域变先1W+</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013165106-670bfa7a84479-300x200.png</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/11/163654sf4d9xf44434tcsm.png"/&gt;&lt;/p&gt;
+&lt;p&gt;AI热门项目玩转AI 动物打工视频搬砖 一键生成轻松爆热门专撩温柔多金小姐姐私域转化率超高 &lt;/p&gt;
+&lt;p&gt;AI 工具现在绝对是互联网人必备技能，各大互联网公司也是竭尽全力开发更加适合中国本土市场的AI工具，那么掌握几个AI操作技能，还能变现，还能轻松生成爆款引流视频，并且受众面都是温柔善良多金的小姐姐，特别有爱心，这类成交转化率也特别高，这想想都是非常幸福啊！变现可带徒，可带课，可陪跑，可售卖素材资料，可接广告，植入广告。也可私域售卖相关产品。&lt;/p&gt;
+&lt;p&gt;1、项目介绍&lt;br/&gt;
+2、项目准备&lt;br/&gt;
+3、项目实操&lt;br/&gt;
+4、项目变现&lt;br/&gt;
+5、注意事项&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1syh0cVHjShupzCvlE11dGg</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:38:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267689/</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>闲鱼虚拟，日入300-1000+实操落地项目</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013165116-670bfa84b16da-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/12/095132f52zl55zr5k5msw0.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;这个项目不是外面那种卖什么各种项目资料这些的，产品是属于虚拟类别的， 属于自带流量，需求大，发布上就有人需要，相当给力，流程我们是实操过来的， 每个流程细节都比较详细，只需要准备一个闲鱼号，复制粘贴发布作品即可，然后坐等用户下单买，整个核心操作教程比较详细分为：&lt;br/&gt;
+1.闲鱼虚拟产品项目介绍&lt;br/&gt;
+2.闲鱼虚拟产品如何变现&lt;br/&gt;
+3.闲鱼虚拟产品如何选品&lt;br/&gt;
+4.闲鱼虚拟产品如何运营发布&lt;br/&gt;
+5.闲鱼虚拟产品如何日入3000-1000+&lt;/p&gt;
+&lt;p&gt;
+下载地址：</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1q6vMJPbBvS2PTp3AOAFoqQ</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:37:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267691/</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>视频号天选之人掘金术，当天起号，小白闭眼干，月变现3w+！！</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013165127-670bfa8fae8e0-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/125106qf9ilmo10mp089yl.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;这个项目可以让小白在当天起号，目标人群主要是中老年人群，经过我们测试后发现，这类视频可以很好的吸引中老年观众，流量非常大，天选之人，乍一看，不就是搞玄学那一套嘛，大家都知道，今年玄学赛道非常火热，在短视频平台上，很多人都吃这一套，尤其是50岁左右的中老年人，这一类群体，他们喜欢正能量，鸡汤，励志，成功学类的作品，那我们这个天选之人和之前的智慧小和尚有些类似，但文案直戳内心，可以说是鸡汤中的王者，所以吸粉能力非常强大，加上中老年群体消费能力非常强，所以变现非常容易且几乎无退单！&lt;/p&gt;
+&lt;p&gt;项目流程：&lt;br/&gt;
+1、项目介绍&lt;br/&gt;
+2、前期准备&lt;br/&gt;
+3、作品制作&lt;br/&gt;
+4、变现方式&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1Tz8auOKo2q5A5KY2_VC-Vg</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267685/</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>得物自媒体搬砖，月入5000+，收益稳定可复制性强，对新手比较友好</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013164049-670bf81131d73-300x200.png</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/14/003439gvey4vcccrlclyvk.png"/&gt;&lt;/p&gt;
+&lt;p&gt;最近这个得物商单玩法有点火，100粉丝就能接广告变现，而且操作难度低，收益稳定。得物不仅仅是一个电商购物平台，还可以通过搬砖赚取收益。为了丰富平台内容，打造好物种草板块，得物官方推出了好物分享关活动，只要账号满足100粉丝且符合内容规范要求，就可以开通接广告商单变现，操作起来也非常简单，这套玩法正反馈来得快，收益稳定，可复制性强，对新手比较友好，感兴趣的可以尝试一下。&lt;/p&gt;
+&lt;p&gt;课程目录：&lt;br/&gt;
+01项目介绍及准备工作&lt;br/&gt;
+02如何快速突破100粉丝&lt;br/&gt;
+03如何寻找爆款素材及去重&lt;br/&gt;
+04操作细节及梳理变现思路&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1GReCK_t5bHA2k3LDavF94g</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/14/267683/</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>快手俄罗斯 数字人带货：流量获取与选品策略 文案制作与账号运营指南</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013164040-670bf808d45dd-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013164040-670bf808b0b9c.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+该内容主要涵盖了关于快手俄罗斯数字人带货的一系列课程，包括案例展示、行业分析、带货账号种类、基础逻辑、流量获取、选品策略、文案制作、账号运营、公司情况讲解以及合法合规等内容，还涉及视频查重处理、数字人生成和音频导出等教学。&lt;/p&gt;
+&lt;p&gt;课程目录：&lt;/p&gt;
+&lt;p&gt;第一节课案例展示和行业分析&lt;/p&gt;
+&lt;p&gt;第二节课带货账号种类&lt;/p&gt;
+&lt;p&gt;第三节课带货的基础逻辑&lt;/p&gt;
+&lt;p&gt;第四节课怎么做流量&lt;/p&gt;
+&lt;p&gt;第五节课怎么选品，&lt;/p&gt;
+&lt;p&gt;第六节课怎么做文案&lt;/p&gt;
+&lt;p&gt;第七节课带货账号运营&lt;/p&gt;
+&lt;p&gt;第九节课公司情况讲解。&lt;/p&gt;
+&lt;p&gt;第十节课合法合规&lt;/p&gt;
+&lt;p&gt;视频查重处理&lt;/p&gt;
+&lt;p&gt;数字人生成课&lt;/p&gt;
+&lt;p&gt;音频导出教学&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1Dp4rH7da90p9zHFFtPxQZA</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:31:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267639/</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>抖音同城流量引爆教程：实体门店如何运用短视频和直播提升销量</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013082142-670b8316efe48-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/161033oy64bx9e4nu8bny4.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+这是一套关于实体门店如何运用抖音平台引爆同城流量的教程，内容涵盖账号建设、视频拍摄与编辑、直播运营等多个方面，旨在帮助门店提升知名度和销量。&lt;/p&gt;
+&lt;p&gt;课程目录&lt;br/&gt;
+01_第1节：实体店做抖音的重要性.mp4&lt;br/&gt;
+02_第2节：同城账号六件套（上）.mp4&lt;br/&gt;
+03_第3节：同城账号六件套（下）.mp4&lt;br/&gt;
+04_第4节：流量池解析.mp4&lt;br/&gt;
+05_第5节：影响视频上热门的五个维度.mp4&lt;br/&gt;
+06_第6节：如何提高完播率.mp4&lt;br/&gt;
+07_第7节：如何提高点赞率.mp4&lt;br/&gt;
+08_第8节：如何提高评论率.mp4&lt;br/&gt;
+09_第9节：如何提高转发率与收藏率.mp4&lt;br/&gt;
+10_第10节：如何提高账号权重.mp4&lt;br/&gt;
+11_第11节：同城账号的内容核心.mp4&lt;br/&gt;
+12_第12节：镜头语言和拍摄技巧.mp4&lt;br/&gt;
+13_第13节：七种常用的运镜方式.mp4&lt;br/&gt;
+14_第14节：剪映剪辑基础教学.mp4&lt;br/&gt;
+15_第15节：剪映特效基础教学.mp4&lt;br/&gt;
+16_第16节：同城短视频20种拍摄方法（1）.mp4&lt;br/&gt;
+17_第17节：同城短视频20种拍摄方法（2）.mp4&lt;br/&gt;
+18_第18节：同城短视频20种拍摄方法（3）.mp4&lt;br/&gt;
+19_第19节：同城短视频20种拍摄方法（4）.mp4&lt;br/&gt;
+20_第20节：同城短视频20种拍摄方法（5）.mp4&lt;br/&gt;
+21_第21节：同城短视频20种拍摄方法（6）.mp4&lt;br/&gt;
+22_第22节：同城短视频20种拍摄方法（7）.mp4&lt;br/&gt;
+23_第23节：同城短视频20种拍摄方法（8） .mp4&lt;br/&gt;
+24_第24节：同城短视频20种拍摄方法（9）.mp4&lt;br/&gt;
+25_第25节：同城短视频20种拍摄方法-10.mp4&lt;br/&gt;
+26_第26节：同城短视频20种拍摄方法-11.mp4&lt;br/&gt;
+27_第27节：发布作品的八大注意事项.mp4&lt;br/&gt;
+28_第28节：同城账号如何打标签.mp4&lt;br/&gt;
+29_第29节：打造个人1P.mp4&lt;br/&gt;
+30_第30节：写脚本的九个步骤.mp4&lt;br/&gt;
+31_第31节：如何寻找选题.mp4&lt;br/&gt;
+32_第32节：同城短视频的爆款文案标题.mp4&lt;br/&gt;
+33_第33节：寻找对标账号+拆解+模仿.mp4&lt;br/&gt;
+34_第34节：同城账号如何做矩阵.mp4&lt;br/&gt;
+35_第35节：如何打造人设.mp4&lt;br/&gt;
+36_第36节：账号是否被限流及注意事项.mp4&lt;br/&gt;
+37_第37节：如何提升表现力.mp4&lt;br/&gt;
+38_第38节：如何配背景音乐.mp4&lt;br/&gt;
+39_第39节：用户思维.mp4&lt;br/&gt;
+40_第40节：短视频心理学.mp4&lt;br/&gt;
+41_第41节：如何设置团购.mp4&lt;br/&gt;
+42_第42节：如何提高到店核销率.mp4&lt;br/&gt;
+43_第43节：企业蓝V号的优势.mp4&lt;br/&gt;
+44_第44节：如何搭建直播间.mp4&lt;br/&gt;
+45_第45节：直播间的直播方式有哪些.mp4&lt;br/&gt;
+46_第46节：直播间的人、货、场.mp4&lt;br/&gt;
+47_第47节：直播间的流量来源.mp4&lt;br/&gt;
+48_第48节：直播前的准备.mp4&lt;br/&gt;
+49_第49节：直播注意事项.mp4&lt;br/&gt;
+50_第50节：影响直播间人气的因素.mp4&lt;br/&gt;
+51_第51节：了解一下抖加.mp4&lt;br/&gt;
+52_第52节：同城账号如何投放抖加.mp4&lt;br/&gt;
+53_第53节：抖加和本地推的区别.mp4&lt;br/&gt;
+54_第54节：私域的运营及重要性.mp4&lt;br/&gt;
+55_第55节：学会使用软件工具及查看数据.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1324l0wx2kUaTmoVlRBX05A</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:10:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267637/</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>最新技术引流方式，中间商赚取高额差价，8天获利2.9个w</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013075043-670b7bd37e302-300x200.png</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/154541hmcmzqzg0gug19mw.png"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+随着疫情阴霾的逐渐散去，娱乐产业正迎来前所未有的复兴与繁荣，其中演唱会市场更是璀璨夺目，目前观看演唱会已经成为生活中一种娱乐常态，演唱会票务有着更丰富的选择，与各大知名演唱会主办方和场地所有者建立紧密的合作关系，我们得以掌握丰富的门票资源，一场演唱会的门票，官网只放到30%的票，剩下的70%以上都要高价到黄牛手上购买，但是黄牛的票，都是由我们来提供，可想而知，对于我们，这里面的操作空间有多大，那么我们通过演唱会门票来赚取更大的利润空间。&lt;/p&gt;
+&lt;p&gt;
+下载地址：&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1LZpM-gCTUBvYis24VElQKQ</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267635/</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>拼夕夕搬砖零撸新手小白可做，三重获利稳稳变现，无脑操作日入几十几百元</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013071050-670b727a80392-300x200.jpeg</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/145130eet5e50c2wttwret.jpeg"/&gt;&lt;/p&gt;
+&lt;p&gt;
+今天，我要给大家分享一个有着6年历史且完全可以零撸的副业好项目。这个项目对于在家的宝妈、忙碌的上班族以及在校的大学生来说，都极为友好。&lt;/p&gt;
+&lt;p&gt;在这个快节奏的时代，每个人都在寻找一种既能兼顾主业又能带来额外收入的方式。而今天，我要为大家介绍的，就是这样一款让你轻松赚钱的神器。它不仅操作简单，而且收益稳定，是你实现财务自由的得力助手。&lt;/p&gt;
+&lt;p&gt;
+下载地址：</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/11HuX58lwKYiE7gXmiJp6kw</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267627/</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>直播带货新号破流速：随心推投放攻略，从起号到数据分析，独立优化投放</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013064115-670b6b8b113eb-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/143029l6g6bn0bjk3fz83k.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+课程内容&lt;/p&gt;
+&lt;p&gt;教授随心推的投放方式、投放策略、投放原理，通过实战案例引导学员优化随心推的投放，避免浪费预算;&lt;/p&gt;
+&lt;p&gt;适用人群&lt;/p&gt;
+&lt;p&gt;本课程适合面向直播带货的从业者人群:&lt;/p&gt;
+&lt;p&gt;学完收获&lt;/p&gt;
+&lt;p&gt;通过课程认识到随心推的投放原理和投放策略，进而能够独立进行随心推的投放、优化&lt;/p&gt;
+&lt;p&gt;课程内容：&lt;/p&gt;
+&lt;p&gt;01 第一节:起号逻辑.mp4&lt;/p&gt;
+&lt;p&gt;02 第二节:破流速话术解析.mp4&lt;/p&gt;
+&lt;p&gt;03 第三节:破流速实战练习,mp4&lt;/p&gt;
+&lt;p&gt;04 第四节:数据分析之标签以及付费起号的思路,mp4&lt;/p&gt;
+&lt;p&gt;05 第五节:数据分析之停留.mp4&lt;/p&gt;
+&lt;p&gt;06 第六节:随心推系统学习,mp4&lt;/p&gt;
+&lt;p&gt;07 错错错.mp4&lt;/p&gt;
+&lt;p&gt;08 第七节:随心推投放策路,mp4&lt;/p&gt;
+&lt;p&gt;09 第八节:付费流量利用投放节点撬动自然流量.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1p47oOvHVuU2UfgK7V9yqdg</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:31:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267621/</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>普通人如何通过知识付费“卖项目”年入“百万”，IP合伙人精品课程，黑科技暴力引流</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013062241-670b6731c0adc-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/134651jjcnrjsid03iqs8n.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;2024年知识付费行业已经进入了3.0甚至是4.0的时代，如何在广大的知识付费导师和从业中脱颖而出，对于每一个知识付费从业者来说就值得我们认真思考和不断创新。我经过几年的打磨和学习总结了以下几点：&lt;br/&gt;
+第一，认真的潜心研究“知识付费”体系的底层逻辑，不断地打磨每一个步骤，让我们的产品体系更加符合当下的互联网的发展和变化。&lt;br/&gt;
+第二，立体化的建立个人的IP人设，让我们的人设更有高度，更有内容，更有温度，我们不紧是一个知识付费从业者，更是一个活生生的人，也是一个走在商业项目中不断成长不断进步的有能量的“知识付费”人。&lt;br/&gt;
+第三，在熟悉和掌握已有的引流方法和技巧的同时，要不断地精进每个引流策略的发展和变化，同时还要不断迭代更新我们得引流策略，以应对瞬息变化的平台策略。&lt;br/&gt;
+第四，真诚而专业的建立我们得转化和交付体系。让我们得学员都可以成功的学习课程，真正替我们得学员着想，并且实现从0到1的突破，从1到100的跨越发展。&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/134722j7f1l6ujjfpfx7ff.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;下载地址：&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1CpwMtst3XLnTO8KboTSpjw</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267619/</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>实战短视频带货课，无需露脸和直播，甚至无需拍摄，日销千单</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013062215-670b6717e5b65-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/140959wzt59aetp0rib5b5.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+1. 第1课：纸巾图文实战.mp4&lt;/p&gt;
+&lt;p&gt;2. 第2课：垃圾袋图文实战.mp4&lt;/p&gt;
+&lt;p&gt;3. 第3课：榨菜品类图文实战.mp4&lt;/p&gt;
+&lt;p&gt;4. 第4课：纸杯图文实战.mp4&lt;/p&gt;
+&lt;p&gt;5. 第5课：百洁布图文实战.mp4&lt;/p&gt;
+&lt;p&gt;6. 第6课：大刀肉图文实战.mp4&lt;/p&gt;
+&lt;p&gt;7. 第7课：辣条图文实战.mp4&lt;/p&gt;
+&lt;p&gt;8. 第8课：面包图文实战.mp4&lt;/p&gt;
+&lt;p&gt;9. 第9课：饼干图文实战.mp4&lt;/p&gt;
+&lt;p&gt;10. 第10课：坚果图文实战.mp4&lt;/p&gt;
+&lt;p&gt;11. 第11课：牙膏图文实战.mp4&lt;/p&gt;
+&lt;p&gt;12. 第12课：方便粉面图文实战.mp4&lt;/p&gt;
+&lt;p&gt;13. 第13课：调料图文实战.mp4&lt;/p&gt;
+&lt;p&gt;14. 第14课：洗衣凝珠图文实战.mp4&lt;/p&gt;
+&lt;p&gt;15. 第15课：意大利面图文实战.mp4&lt;/p&gt;
+&lt;p&gt;16. 第16课：火锅底料图文实战.mp4&lt;/p&gt;
+&lt;p&gt;17. 第1课：垃圾袋短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;18. 第2课：纸巾短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;19. 第3课：纸杯短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;20. 第4课：饼干短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;21. 第5课：坚果短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;22. 第6课：调料短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;23. 第7课：洗衣凝珠短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;24. 第8课：百洁布短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;25. 第9课：大刀肉短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;26. 第10课：火锅底料短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;27. 第11课：辣条短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;28. 第12课：面包短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;29. 第13课：牙膏短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;30. 第14课：方便粉面短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;31. 第15课：意大利面短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;32. 第16课：榨菜品类短视频实战.mp4&lt;/p&gt;
+&lt;p&gt;33. 第17课：短视频二创总结.mp4&lt;/p&gt;
+&lt;p&gt;34. 短视频原创制作重要性.mp4&lt;/p&gt;
+&lt;p&gt;35. 原创视频拍摄常用道具.mp4&lt;/p&gt;
+&lt;p&gt;36. 原创拍摄如何进行单灯布光.mp4&lt;/p&gt;
+&lt;p&gt;37. 原创视频素材时长选择.mp4&lt;/p&gt;
+&lt;p&gt;38. 原创拍摄室内灯光布景.mp4&lt;/p&gt;
+&lt;p&gt;39. 原创视频拍摄样品展示.mp4&lt;/p&gt;
+&lt;p&gt;40. 原创拍摄双灯光布景.mp4&lt;/p&gt;
+&lt;p&gt;41. 原创拍摄运镜技巧.mp4&lt;/p&gt;
+&lt;p&gt;42. 原创拍摄枸杞原浆实战.mp4&lt;/p&gt;
+&lt;p&gt;43. 原创拍摄暖宝宝实战.mp4&lt;/p&gt;
+&lt;p&gt;44. 原创拍摄暖青汁实战.mp4&lt;/p&gt;
+&lt;p&gt;45. 原创拍摄湿巾实战.mp4&lt;/p&gt;
+&lt;p&gt;46. 原创拍摄小香肠实战.mp4&lt;/p&gt;
+&lt;p&gt;47. 原创拍摄家居布景实战.mp4&lt;/p&gt;
+&lt;p&gt;48. 原创拍摄牙膏实战.mp4&lt;/p&gt;
+&lt;p&gt;49. 原创拍摄薄荷糖实战.mp4&lt;/p&gt;
+&lt;p&gt;50. 如何克服配音恐惧.mp4&lt;/p&gt;
+&lt;p&gt;51. 如何找到配音状态.mp4&lt;/p&gt;
+&lt;p&gt;52. 口播文案应如何调整.mp4&lt;/p&gt;
+&lt;p&gt;53. 短视频声音如何录制.mp4&lt;/p&gt;
+&lt;p&gt;54. 巧用方言口音配音.mp4&lt;/p&gt;
+&lt;p&gt;55. 如何进行声音美化加工.mp4&lt;/p&gt;
+&lt;p&gt;56. 真人出境视频人设打造.mp4&lt;/p&gt;
+&lt;p&gt;57. 真人出境人设定位强化.mp4&lt;/p&gt;
+&lt;p&gt;58. 真人出境信念感建立.mp4&lt;/p&gt;
+&lt;p&gt;59. 真人出镜情绪状态调整.mp4&lt;/p&gt;
+&lt;p&gt;60. 出境人物产品互动技巧.mp4&lt;/p&gt;
+&lt;p&gt;61. 出境人物拍摄镜头角度.mp4&lt;/p&gt;
+&lt;p&gt;62. 真人动态氛围拍摄.mp4&lt;/p&gt;
+&lt;p&gt;63. 真人出境灯光布景.mp4&lt;/p&gt;
+&lt;p&gt;64. 真人出境背景搭建.mp4&lt;/p&gt;
+&lt;p&gt;65. 真人出境形象包装.mp4&lt;/p&gt;
+&lt;p&gt;66. 出境人物记忆点打造.mp4&lt;/p&gt;
+&lt;p&gt;67. 真人出境运镜技巧.mp4&lt;/p&gt;
+&lt;p&gt;68. 馋嘴小妞妞.mp4&lt;/p&gt;
+&lt;p&gt;69. 大楠子.mp4&lt;/p&gt;
+&lt;p&gt;70. 大妮子超爱吃.mp4&lt;/p&gt;
+&lt;p&gt;71. 符大巍.mp4&lt;/p&gt;
+&lt;p&gt;72. 锦儿.mp4&lt;/p&gt;
+&lt;p&gt;73. 老张爱吃Uncle张.mp4&lt;/p&gt;
+&lt;p&gt;74. 琳锡的吃货乐园.mp4&lt;/p&gt;
+&lt;p&gt;75. 沐瑶小铺.mp4&lt;/p&gt;
+&lt;p&gt;76. 是彤彤吖.mp4&lt;/p&gt;
+&lt;p&gt;77. 唐唐和朋友们.mp4&lt;/p&gt;
+&lt;p&gt;78. 甜甜好物.mp4&lt;/p&gt;
+&lt;p&gt;79. 王家食谱.mp4&lt;/p&gt;
+&lt;p&gt;80. 香香的零食小屋.mp4&lt;/p&gt;
+&lt;p&gt;81. 小果粒吖.mp4&lt;/p&gt;
+&lt;p&gt;82. 小红姐姐.mp4&lt;/p&gt;
+&lt;p&gt;83. 小熊爱吃吃.mp4&lt;/p&gt;
+&lt;p&gt;84. 小九同学.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1GcGbvK0Xa4wGlC6vfZTlmQ</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267607/</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>小红书企业号矩阵引流课，涵盖运营、选品、文案，快速掌握卖货技巧</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013042109-670b4ab5f12d7-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/120811e6czioxzo0ccouo3.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+课程内容：&lt;/p&gt;
+&lt;p&gt;1-01、认识小红书企业号矩阵及优势&lt;/p&gt;
+&lt;p&gt;2-02、企业号矩阵的核心流量逻辑&lt;/p&gt;
+&lt;p&gt;3-03、什么样的商家适合做专业号矩阵&lt;/p&gt;
+&lt;p&gt;4-04、小红书企业号的流量变现方式&lt;/p&gt;
+&lt;p&gt;5-05、专业号矩阵起号需要的团队配置&lt;/p&gt;
+&lt;p&gt;6-06、起号需要配置哪些运营设备&lt;/p&gt;
+&lt;p&gt;7-07、什么产品适合做小红书引流(选品)&lt;/p&gt;
+&lt;p&gt;8-08、新号快速起号的做法与步骤&lt;/p&gt;
+&lt;p&gt;9-09、小红书笔记的推荐逻辑及算法&lt;/p&gt;
+&lt;p&gt;10-10、小红书的发布时间与发布频率&lt;/p&gt;
+&lt;p&gt;11-11、如何制定小红书笔记运营计划.mp3&lt;/p&gt;
+&lt;p&gt;12-12、如何策划账号定位和内容方向&lt;/p&gt;
+&lt;p&gt;13-13、如何批量化拍摄小红书素材&lt;/p&gt;
+&lt;p&gt;14-14、高转化的图片拍摄及场景搭建&lt;/p&gt;
+&lt;p&gt;15-15、小红书企业号短视频的制作&lt;/p&gt;
+&lt;p&gt;16-16、击中客户要害的选题方法&lt;/p&gt;
+&lt;p&gt;17-17、企业号笔记文案写作方法&lt;/p&gt;
+&lt;p&gt;18-18、小红书热点词汇与热点话题的应用&lt;/p&gt;
+&lt;p&gt;19-19、账号运营的内容引流节奏&lt;/p&gt;
+&lt;p&gt;20-20、小红书企业号爆文的几个特质&lt;/p&gt;
+&lt;p&gt;21-21、如何收集并拆解分析对标优秀案例&lt;/p&gt;
+&lt;p&gt;22-22、小红书笔记封面图设计技巧&lt;/p&gt;
+&lt;p&gt;23-23、常用的美图软件和视频剪辑软件&lt;/p&gt;
+&lt;p&gt;24-24、小红书数据分析工具及分析要素&lt;/p&gt;
+&lt;p&gt;25-25、如何利用营销工具快速获得粉丝&lt;/p&gt;
+&lt;p&gt;26-26、小红书常见的6大流量闭环导流方式&lt;/p&gt;
+&lt;p&gt;27-27、小红书账号评论区的正确导流方法&lt;/p&gt;
+&lt;p&gt;28-28、小红书笔记私信互动的导流要点&lt;/p&gt;
+&lt;p&gt;29-29、高转化率私域朋友圈的打造&lt;/p&gt;
+&lt;p&gt;30-30、小红书账号运营常见雷区避坑&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1n4VgsKKb9O3CMvgv8SDyRQ</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:08:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267609/</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>小红书专业号矩阵引流课，月销百万案例解析，精准获客技巧全揭秘</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241013042139-670b4ad3b66b7-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/13/120620w88zz6dnjubqsqds.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;课程内容：&lt;/p&gt;
+&lt;p&gt;1-【结营仪式】1个专业号矩阵是如何做到月销120w的?&lt;/p&gt;
+&lt;p&gt;2-第2课【解读】小红书专业号的优势&lt;/p&gt;
+&lt;p&gt;3-第3课【模式】拆解专业号矩阵运营逻辑与模式&lt;/p&gt;
+&lt;p&gt;4-第4课【养号】专业号矩阵快速起号准备&lt;/p&gt;
+&lt;p&gt;5-第5课【配置】团队配置与工作协调规划&lt;/p&gt;
+&lt;p&gt;6-第6课【定位】如何策划账号定位和内容方向&lt;/p&gt;
+&lt;p&gt;7-第7课【内容】创作高质量笔记的6大要素&lt;/p&gt;
+&lt;p&gt;8-第8课【规划】如何制定小红书笔记运营计划&lt;/p&gt;
+&lt;p&gt;9-第9课【爆文】专业号爆文笔记文案写作方法&lt;/p&gt;
+&lt;p&gt;10-第10课【技巧】小红书爆款笔记封面设计技巧&lt;/p&gt;
+&lt;p&gt;11-第11课【营销】账号营销活动策划及优化方法&lt;/p&gt;
+&lt;p&gt;12-第12课【测试】小红书的发布时间与发布频率&lt;/p&gt;
+&lt;p&gt;13-第13课【素材】5大行业图片拍照方法&lt;/p&gt;
+&lt;p&gt;14-第14课【工具】小红书辅助运营工具应用&lt;/p&gt;
+&lt;p&gt;15-第15课【转化】私域导流方法及话术设定&lt;/p&gt;
+&lt;p&gt;16-第16课【算法】小红书笔记的推荐逻辑及算法&lt;/p&gt;
+&lt;p&gt;17-第17课【避坑】小红书专业号运营避坑指南&lt;/p&gt;
+&lt;p&gt;18-第18课【选品】小红书企业号矩阵的选品方向&lt;/p&gt;
+&lt;p&gt;
+下载地址：</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1PrYoFCuumwpm4IZxD1vXdA</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:06:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267557/</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>抖音小店精细化运营：类目、完善店铺基础设置、选品、营销活动、维护店铺体验分等</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012182046-670abdfe61d7d-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012182046-670abdfe55589.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+主要内容包括：类目、完善店铺基础设置、选品、营销活动、维护店铺体验分等。做抖音小店最关键的就是产品，其次是流量。产品只要做好了，什么都好说。但是对于新手来说，总会马马虎虎的，店铺并没有做到精细化运营，所以就会导致店铺出现流量断层、体验分下降等问题。&lt;/p&gt;
+&lt;p&gt;视频截图：&lt;/p&gt;
+&lt;p&gt;课程目录：&lt;br/&gt;
+01.抖店基础知识（2024）.mp4&lt;br/&gt;
+02.抖店基础设置（2024）.mp4&lt;br/&gt;
+03.抖店选品思路和指标（2024）.mp4&lt;br/&gt;
+04.类目选择+选词（老版本）.mp4&lt;br/&gt;
+05.拼多多聊代发选品（2024）.mp4&lt;br/&gt;
+06.智能店长上货软件_1（2024）.mp4&lt;br/&gt;
+07.智能店长上货软件_2（2024）.mp4&lt;br/&gt;
+08.智能店长上货软件_采集插件（2024）.mp4&lt;br/&gt;
+09.店管家推单发货（2024）.mp4&lt;br/&gt;
+10.上货后商品优化_重要（2024）.mp4&lt;br/&gt;
+11.聚水潭玩法—绑定店铺—选供应商（2024）.mp4&lt;br/&gt;
+12.聚水潭玩法—供应商下选品以及上架（2024）.mp4&lt;br/&gt;
+13.聚水潭订单推送（2024）.mp4&lt;br/&gt;
+14.上货后商品优化_重要（2024）.mp4&lt;br/&gt;
+15.店铺上货—仓库商品优化（老版本）.mp4&lt;br/&gt;
+16.店铺怎么补单（2024）.mp4&lt;br/&gt;
+17.抖客补单（老版本）.mp4&lt;br/&gt;
+18.怎么设置优惠券（老版本）.mp4&lt;br/&gt;
+19.怎么设置限时限量够（老版本）.mp4&lt;br/&gt;
+20.店铺运营流程—两个七天（老版本）.mp4&lt;br/&gt;
+21.店铺运营流程—拉升和实时补单（老版本）.mp4&lt;br/&gt;
+22.店铺运营复盘（老版本）.mp4&lt;br/&gt;
+23.店铺DSR怎么维护（老版本）.mp4&lt;br/&gt;
+24.调价的节奏和节点（老版本）.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1L83ZhxK-aMtamI0ctFDGSA</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2024-10-13 02:16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/13/267560/</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>淘系对账实操课程详解：从订单处理到绩效工资核算，全面掌握电商财务管理</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012182111-670abe17e9584-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012182111-670abe17dd4b9.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+这是一门关于电商行业财务淘系对账的实操课程，内容涵盖了电商交易模式、对账思路、财务常用分录、确认收入时点、刷单补单处理、ERP平台使用等多个方面。同时，课程还详细讲解了淘系平台按订单时点确认收入对账流程和按账单时点确认收入核算全流程，包括收入确认、成本结转、费用扣除等关键环节。最后，还提供了数据分析课程和绩效工资核算的内容。&lt;/p&gt;
+&lt;p&gt;课程目录&lt;/p&gt;
+&lt;p&gt;011、电商行业交易模式及名词解释（原始）.mp4&lt;/p&gt;
+&lt;p&gt;02 2、电商交易流程及对账思路讲解.mp4&lt;/p&gt;
+&lt;p&gt;03 3、电商财务常用分录讲解（16分钟）.mp4&lt;/p&gt;
+&lt;p&gt;04 4、4种确认收入时点讲解（重要）.mp4&lt;/p&gt;
+&lt;p&gt;05 5、刷单、补单流程及账务处理.mp4&lt;/p&gt;
+&lt;p&gt;06 6、电商erp-聚水潭平台讲解.mp4&lt;/p&gt;
+&lt;p&gt;071、淘系后台财务常用模块讲解.mp4&lt;/p&gt;
+&lt;p&gt;08 2、订单报表、宝贝报表、账单、退广费账单等导出路径及其中字段解释.mp4&lt;/p&gt;
+&lt;p&gt;09 3、如何确认当月收入金额.mp4&lt;/p&gt;
+&lt;p&gt;10 4、确认当月成本金额.mp4&lt;/p&gt;
+&lt;p&gt;11 5、费用扣除两种方法讲解.mp4&lt;/p&gt;
+&lt;p&gt;12 6、快递费核算及店铺利润表填制流程.mp4&lt;/p&gt;
+&lt;p&gt;13按账单时点确认收入核算全流程（确认收入、结转成本、扣除费用及生成利润表）.mp4&lt;/p&gt;
+&lt;p&gt;14运营、客服绩效工资核算.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1s0EdRvzAcVOl5uw3jfnECQ</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2024-10-13 02:13:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267554/</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>AI动画制作套路对话，高收益高热度暴力涨粉，玩法丰富，绝对原创</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012131050-670a755a3289d-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/12/204151w43kqrnegsqyzz7n.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;这个世界上没有人是一座孤岛，绝大多数人都有自己的圈子，而在人际交往中，分享欲是不可缺少的表现，当我们看到有趣的东西很多人都会愿意分享给自己的好朋友、闺蜜、家人或者是对象，而我们就是利用这样的人性来进行作品创作，所以在这里我找了个切入点，利用日常的“套路”对话来快速涨粉，毕竟自古深情留不住，唯有套路得人心嘛。这种内容很容易传播，而且很有趣，当用户看到后，有很大的动机会发给朋友、对象，从而产生人际交往中的互动，或者也会点赞收藏起来后面发。所以这类的内容也会增进关系，有很大的市场。&lt;/p&gt;
+&lt;p&gt;下载地址：&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1k2YamJwzZExwkqIz20J_Hw</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267542/</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>电商财务实操课程：详解京东对账流程，从交易流程到利润核算全面覆盖</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012120046-670a64ee082b2-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012120045-670a64ed0882c.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+这是一门关于电商行业财务京东对账的实操课程，内容涵盖了电商交易流程、财务常用分录、京东平台盈利模式和货款结算流程等多个方面，重点讲解了京东对账的流程和技巧，包括确认收入、退款、成本结转、费用扣除、快递运费账单核对等，最后还介绍了利润表、产品分析表、日报的填制方法。&lt;/p&gt;
+&lt;p&gt;课程目录：&lt;br/&gt;
+01第二课.mp4&lt;br/&gt;
+02第一课.mp4&lt;br/&gt;
+03第三课.mp4&lt;br/&gt;
+04第四课.mp4&lt;br/&gt;
+05第五课.mp4&lt;br/&gt;
+06第六课.mp4&lt;br/&gt;
+07 第七课.mp4&lt;br/&gt;
+08 第八课.mp4&lt;br/&gt;
+09第九课.mp4&lt;br/&gt;
+10第十课.mp4&lt;br/&gt;
+11第十一课.mp4&lt;br/&gt;
+12 第十二课.mp4&lt;br/&gt;
+13第十三课.mp4&lt;br/&gt;
+14 第十四课.mp4&lt;br/&gt;
+15 第十五课.mp4&lt;br/&gt;
+16第十七课.mp4&lt;br/&gt;
+17 第十八课.mp4&lt;br/&gt;
+18 第十九课.mp4&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1zVLypgFNe5wFz-Srhlg3lg</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:49:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267539/</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>小鱼小红书0成本赚差价项目，利润空间非常大，尽早入手，多赚钱。</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012102048-670a4d80354ae-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/12/180323ygwtx4nx8nhx8o0x.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+0成本的一个项目，玩法简单，操作易懂，上限很高且可自用省钱，非常适合小白去研究，手上没项目的朋友推荐去尝试，有项目的朋友也可以当个副业，目前属于一个非常蓝海的项目，目前做的人很少，是一个长期的项目，抓住机会多赚一些。。&lt;br/&gt;
+轻松月入5万＋，每单利润在500以上，每天多劳多得，十几分钟可做一单&lt;/p&gt;
+&lt;p&gt;
+下载地址：&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1hgj2l0dQCDF5LWP6I9JhFw</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:05:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267479/</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>视频号无人直播不死号流玩法8.0，挂机直播不违规，单机日入500+</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012052037-670a07252c11c-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/10/143325br7d7z49djbkukrk.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;直播大家都耳熟能详，这几年直播带货的收益十分可观，不少人吃到了时代的红利。那么无人直播，大家也应该多多少少都比较熟悉，但是也有很多朋友只是听过并没有做过，为什么？因为无人直播项目价格贵，怕被割韭菜。就不说你们了，我自己本身也被割过很多次，而且传统的无人直播容易违规，比较废号。那么本次的项目清风为大家拆解一下视频号的无人直播玩法，并且是经过我们升级优化后，搭配提升账号权重的方法，研究出来的新玩法，不违规，&lt;br/&gt;
+优点：1.挂机托管 2.不死号 3.给的流量大 4.赛道小众，不卷&lt;/p&gt;
+&lt;p&gt;
+下载地址：</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1y-HzVvIsu2B7PdiYmWSBXg</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267481/</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>小红书运营引流全攻略：资料课程入门+笔记构成，轻松掌握引流技巧</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012052103-670a073f84b98-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/12/131250g1r9anynrazak9nk.jpg"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+课程目录：&lt;/p&gt;
+&lt;p&gt;1-1确定自己要做的领域（网盘资料）小红书引流&lt;/p&gt;
+&lt;p&gt;2-2没有备考过，对资料课程不了解，该怎么入手？&lt;/p&gt;
+&lt;p&gt;3-3小红书的垂直度（封面垂直，内容垂直）&lt;/p&gt;
+&lt;p&gt;4-4小红书的两个方向（个人ip和资料引流）&lt;/p&gt;
+&lt;p&gt;5-5小红书笔记2种风格&lt;/p&gt;
+&lt;p&gt;6-6小红书关键词搜索&lt;/p&gt;
+&lt;p&gt;7-7一篇完整的小红书笔记构成和如何发小红书笔记？&lt;/p&gt;
+&lt;p&gt;8-8如何对标同行（重要）&lt;/p&gt;
+&lt;p&gt;9-9如何对标优秀同行的笔记&lt;/p&gt;
+&lt;p&gt;10-10如何拆解小红书账号？&lt;/p&gt;
+&lt;p&gt;11-11小红书养号注意事项（重要）&lt;/p&gt;
+&lt;p&gt;12-12小红书3款图片制作&lt;/p&gt;
+&lt;p&gt;13-13小红书封面图制作（四）&lt;/p&gt;
+&lt;p&gt;14-14小红书封面图2种风格对比&lt;/p&gt;
+&lt;p&gt;15-15优秀学徒小红书笔记风格&lt;/p&gt;
+&lt;p&gt;16-16教资类项目在&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1TKkqmhhGU5E4tnjOQApAnw</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:13:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267472/</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2024抖音同城引流实战课：揭秘实体店千城万店盈利模式，打造流量爆款</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012042112-6709f93864d34-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/12/120711cb0508h3b5xh83t0.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;课程内容：&lt;/p&gt;
+&lt;p&gt;01 导读.mp4&lt;/p&gt;
+&lt;p&gt;02 千城万店盈利模式.mp4&lt;/p&gt;
+&lt;p&gt;03 实体店如何借助抖音实现千城万店.mp4&lt;/p&gt;
+&lt;p&gt;04 运营篇1.账号设置 .mp4&lt;/p&gt;
+&lt;p&gt;05 运营篇2.门店经营分 .mp4&lt;/p&gt;
+&lt;p&gt;06 运营篇3.质量分 .mp4&lt;/p&gt;
+&lt;p&gt;07 运营簡4.POI热度分.mp4&lt;/p&gt;
+&lt;p&gt;08 运营篇5.用户评分 .mp4&lt;/p&gt;
+&lt;p&gt;11 矩阵篇1.实体店矩阵打法,mp4&lt;/p&gt;
+&lt;p&gt;12 矩阵篇2.揭秘十分钟生成1000条短视频秘密.mp4&lt;/p&gt;
+&lt;p&gt;13 矩阵篇3.顾客矩阵引爆同城人气榜单,mp4&lt;/p&gt;
+&lt;p&gt;14 矩阵篇4.员工矩阵如何批量注册上百个抖音账号,mp4&lt;/p&gt;
+&lt;p&gt;15 矩阵篇5.一个人如何管理100个抖音账号.mp4&lt;/p&gt;
+&lt;p&gt;16 矩阵6.达人矩阵推广.mp4&lt;/p&gt;
+&lt;p&gt;17 短阵篇7.如何做达人矩阵,mp4&lt;/p&gt;
+&lt;p&gt;18 矩阵篇8.如何找当地达人.mp4&lt;/p&gt;
+&lt;p&gt;19 矩阵篇9.如何筛选跟门店匹配的达人.mp4&lt;/p&gt;
+&lt;p&gt;20 团购篇1.做团购的6大好处,mp4&lt;/p&gt;
+&lt;p&gt;21 团购篇2.团购爆款组品逻辑,mp4&lt;/p&gt;
+&lt;p&gt;22 团购篇3.如何设置门店团购套餐,mp4&lt;/p&gt;
+&lt;p&gt;23 流量篇1.短视频3大正确认知.mp4&lt;/p&gt;
+&lt;p&gt;24 流量篇2.321同城短视频爆流打法-让同城用户刷到.mp4&lt;/p&gt;
+&lt;p&gt;25 流量篇3.产品营销型内容-让同城用户信任,mp4&lt;/p&gt;
+&lt;p&gt;26 流量简4.IP人设内容-被同城用户信任,mp4&lt;/p&gt;
+&lt;p&gt;27 流量篇5.有效视频的6个制作步骤.mp4&lt;/p&gt;
+&lt;p&gt;28 流量篇6.4种方法找到优秀对标账号,mp4&lt;/p&gt;
+&lt;p&gt;29 流量篇7.挑选对标账号的6个标准,mp4&lt;/p&gt;
+&lt;p&gt;30 模型篇1.单店执行模型.mp4&lt;/p&gt;
+&lt;p&gt;31 模型篇2.连锁执行模型.mp4&lt;/p&gt;
+&lt;p&gt;32 认知篇1.实体店如何借助抖音快速发展,mp4&lt;/p&gt;
+&lt;p&gt;33 认知篇2.实体店常见的变现方式.mp4&lt;/p&gt;
+&lt;p&gt;34 认知筒3.实体店持续盈利的底层逻辑,mp4&lt;/p&gt;
+&lt;p&gt;
+下载地址：</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1rOdf4cETio074BGuSsO1Cg</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:07:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267474/</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>AI百度文库项目，零门槛，被动管道月入10000+</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012042122-6709f942ad933-300x200.jpg</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/10/101457a7zytiyjwjb4q4jw.jpg"/&gt;&lt;/p&gt;
+&lt;p&gt;这个AI百度文库项目长期稳定可以做，前期是通过AI生成各种文档类型，然后上传到文库里面去，收益有三种，上传到百度文库里面有收益，上传之后用户下载了也有收益，用户开通百度文库会员也有收益，前期就是要上传文档到文库里面去，后期可以实现躺挣，文档内容涉及到全行业类目，不用担心不会写，我们全部用AI来做好直接上传发布即可，项目长期稳定，非常给力，整个课程项目分为：&lt;br/&gt;
+1.百度文库项目是做什么的？&lt;br/&gt;
+2.AI百度文库项目操作&lt;br/&gt;
+3.AI如何批量生成文档资料&lt;br/&gt;
+4.AI百度文库如何挣钱&lt;br/&gt;
+5.百度文库项目变现总结&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1YF-4QHk04BTIgKJR1N5LSg</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/2024/10/12/267470/</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>携程搬砖项目，百分百原创，可实操变现，新手小白月入1000+</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://bbs.abab9.cn/wp-content/uploads/2024/10/20241012041056-6709f6d034433-300x200.png</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>福缘缘</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;img src="https://bbs.fuyuan6.com/data/attachment/forum/202410/12/113707cnxnogo2iohif0fg.png"/&gt;&lt;br/&gt;
+&lt;br/&gt;
+今天要跟大家分享一个最近超火的项目——携程搬砖。携程是国内首屈一指的在线旅行平台，有着丰富多样的旅游产品，像机票、酒店以及度假套餐等。那怎么通过原创图文在携程平台上来赚钱呢？&lt;br/&gt;
+只需要一个标题，一段文字，一张图片，组成一个模板，用这个模板去发布到平台，赚取收益&lt;br/&gt;
+优点:&lt;br/&gt;
+1.新手小白可操作&lt;br/&gt;
+2.收入可观&lt;br/&gt;
+3.时间自由&lt;br/&gt;
+本课程包含:&lt;br/&gt;
+项目准备&lt;br/&gt;
+项目实操&lt;br/&gt;
+注意事项&lt;/p&gt;
+&lt;p&gt;下载地址：</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://pan.baidu.com/s/1wrcvj6hRl4L8lKQqlkY81A</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:01:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
